--- a/Arduino/thermistors/calibration.xlsx
+++ b/Arduino/thermistors/calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elpat\Github\Control-Hardware\Arduino\thermistors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDF3686-326D-4D07-8AED-4DF436E11856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87FFFB1-FB3C-422F-A09F-6ECEC5B7EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26748" yWindow="-552" windowWidth="17424" windowHeight="12204" xr2:uid="{A0C0429C-C378-4FE4-B80D-60D01148D7CF}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
@@ -58,11 +52,20 @@
   <si>
     <t>Avg:</t>
   </si>
+  <si>
+    <t>T0 (K)</t>
+  </si>
+  <si>
+    <t>T1 (K)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,13 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,21 +435,22 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,16 +463,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +487,7 @@
         <v>-3.8318906619544957</v>
       </c>
       <c r="D6" s="3">
-        <f>C6/(1/$B$3-1/$A$3)</f>
+        <f t="shared" ref="D6:D16" si="0">C6/(1/$B$3-1/$A$3)</f>
         <v>3905.6899063884753</v>
       </c>
     </row>
@@ -494,11 +499,11 @@
         <v>701</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C16" si="0">LN(B7/A7)</f>
+        <f t="shared" ref="C7:C16" si="1">LN(B7/A7)</f>
         <v>-3.7946072347040514</v>
       </c>
       <c r="D7" s="3">
-        <f>C7/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3867.6884292238433</v>
       </c>
     </row>
@@ -510,11 +515,11 @@
         <v>703</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.7941937382621354</v>
       </c>
       <c r="D8" s="3">
-        <f>C8/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3867.2669691609158</v>
       </c>
     </row>
@@ -526,11 +531,11 @@
         <v>689</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8190033788223405</v>
       </c>
       <c r="D9" s="3">
-        <f>C9/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3892.5544241708394</v>
       </c>
     </row>
@@ -542,11 +547,11 @@
         <v>701</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.7980664483005215</v>
       </c>
       <c r="D10" s="3">
-        <f>C10/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3871.2142645932913</v>
       </c>
     </row>
@@ -558,11 +563,11 @@
         <v>698</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8086662116372225</v>
       </c>
       <c r="D11" s="3">
-        <f>C11/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3882.0181711570403</v>
       </c>
     </row>
@@ -574,11 +579,11 @@
         <v>691</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8253641514811259</v>
       </c>
       <c r="D12" s="3">
-        <f>C12/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3899.0377003814338</v>
       </c>
     </row>
@@ -590,11 +595,11 @@
         <v>699</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.7983303053779607</v>
       </c>
       <c r="D13" s="3">
-        <f>C13/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3871.4832033535527</v>
       </c>
     </row>
@@ -606,11 +611,11 @@
         <v>696</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8074922858795937</v>
       </c>
       <c r="D14" s="3">
-        <f>C14/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3880.8216364991122</v>
       </c>
     </row>
@@ -622,11 +627,11 @@
         <v>691</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8161048260683295</v>
       </c>
       <c r="D15" s="3">
-        <f>C15/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3889.6000475371643</v>
       </c>
     </row>
@@ -638,28 +643,28 @@
         <v>686</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8223789584749315</v>
       </c>
       <c r="D16" s="3">
-        <f>C16/(1/$B$3-1/$A$3)</f>
+        <f t="shared" si="0"/>
         <v>3895.9950148714647</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <f>AVERAGE(A6:A14)</f>
         <v>31391.222222222223</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <f>AVERAGE(D6:D14)</f>
         <v>3881.974967214278</v>
       </c>
